--- a/public/results/01hpym0hb2pb44p1nw6b4kv923/100_LEVEL_001/ANATOMY.xlsx
+++ b/public/results/01hpym0hb2pb44p1nw6b4kv923/100_LEVEL_001/ANATOMY.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>S/N</t>
   </si>
@@ -36,6 +36,27 @@
   </si>
   <si>
     <t>REMARKS</t>
+  </si>
+  <si>
+    <t>PRINCE CHARMING</t>
+  </si>
+  <si>
+    <t>JEPH-0001-UURI</t>
+  </si>
+  <si>
+    <t>ANATOMY (ANATOMY_RRE)</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>MARY AMOKEYE ABIMAYE</t>
+  </si>
+  <si>
+    <t>CON/BM/23/002</t>
   </si>
 </sst>
 </file>
@@ -385,7 +406,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:G1"/>
@@ -414,6 +435,52 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>4.0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>9.0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
